--- a/Test Summary Report.xlsx
+++ b/Test Summary Report.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\Manual_Testing_Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -142,16 +142,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -437,7 +437,7 @@
   <dimension ref="D2:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -448,15 +448,15 @@
   <sheetData>
     <row r="2" spans="4:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="4:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
     </row>
     <row r="4" spans="4:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F4" s="2">
@@ -464,7 +464,7 @@
       </c>
     </row>
     <row r="5" spans="4:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F5" s="1">
@@ -472,7 +472,7 @@
       </c>
     </row>
     <row r="6" spans="4:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F6" s="1">
@@ -480,7 +480,7 @@
       </c>
     </row>
     <row r="7" spans="4:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F7" s="1">
@@ -488,7 +488,7 @@
       </c>
     </row>
     <row r="8" spans="4:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="4" t="s">
         <v>2</v>
       </c>
       <c r="F8" s="1">
@@ -496,7 +496,7 @@
       </c>
     </row>
     <row r="9" spans="4:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F9" s="1">

--- a/Test Summary Report.xlsx
+++ b/Test Summary Report.xlsx
@@ -51,7 +51,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -60,21 +60,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="16"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -83,13 +92,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="8" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -134,7 +137,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -142,16 +145,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -437,13 +443,14 @@
   <dimension ref="D2:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="7.85546875" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" customWidth="1"/>
+    <col min="5" max="5" width="24.5703125" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="4:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -460,7 +467,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="2">
-        <v>507</v>
+        <v>258</v>
       </c>
     </row>
     <row r="5" spans="4:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -468,7 +475,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="1">
-        <v>507</v>
+        <v>258</v>
       </c>
     </row>
     <row r="6" spans="4:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -476,7 +483,7 @@
         <v>4</v>
       </c>
       <c r="F6" s="1">
-        <v>484</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" spans="4:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -484,23 +491,23 @@
         <v>5</v>
       </c>
       <c r="F7" s="1">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="4:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="1">
-        <v>95.46</v>
+      <c r="F8" s="7">
+        <v>0.92630000000000001</v>
       </c>
     </row>
     <row r="9" spans="4:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="1">
-        <v>4.53</v>
+      <c r="F9" s="7">
+        <v>7.3599999999999999E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Test Summary Report.xlsx
+++ b/Test Summary Report.xlsx
@@ -151,13 +151,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -443,7 +443,7 @@
   <dimension ref="D2:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -455,12 +455,12 @@
   <sheetData>
     <row r="2" spans="4:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="4:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
     </row>
     <row r="4" spans="4:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E4" s="3" t="s">
@@ -483,7 +483,7 @@
         <v>4</v>
       </c>
       <c r="F6" s="1">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="4:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -491,14 +491,14 @@
         <v>5</v>
       </c>
       <c r="F7" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="4:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="5">
         <v>0.92630000000000001</v>
       </c>
     </row>
@@ -506,7 +506,7 @@
       <c r="E9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="5">
         <v>7.3599999999999999E-2</v>
       </c>
     </row>
